--- a/ReactJs-Capstone.xlsx
+++ b/ReactJs-Capstone.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -94,6 +94,9 @@
     <t>Login</t>
   </si>
   <si>
+    <t>Cannot fix 415 error</t>
+  </si>
+  <si>
     <t>Register</t>
   </si>
   <si>
@@ -119,9 +122,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -181,30 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,23 +197,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +266,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
@@ -309,8 +311,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,7 +358,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +382,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,19 +424,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,97 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,13 +496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,13 +514,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,11 +651,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,16 +723,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,127 +755,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1221,7 +1224,7 @@
   <dimension ref="A1:X999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -1229,7 +1232,7 @@
     <col min="8" max="8" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" ht="13.2" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1734,9 @@
       <c r="G14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="23"/>
+      <c r="H14" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -1751,7 +1756,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:24">
       <c r="A15" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>20</v>
@@ -1825,7 +1830,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:24">
       <c r="A17" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>20</v>
@@ -1899,7 +1904,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:24">
       <c r="A19" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>20</v>
@@ -2011,9 +2016,8 @@
     </row>
     <row r="23" customHeight="1" spans="2:24">
       <c r="B23" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
-      <c r="C23"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
@@ -2032,8 +2036,8 @@
       <c r="X23" s="31"/>
     </row>
     <row r="24" customHeight="1" spans="2:24">
-      <c r="B24" t="s">
-        <v>29</v>
+      <c r="B24" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
@@ -2053,8 +2057,8 @@
       <c r="X24" s="31"/>
     </row>
     <row r="25" customHeight="1" spans="2:24">
-      <c r="B25" t="s">
-        <v>30</v>
+      <c r="B25" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
@@ -19625,6 +19629,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B23" r:id="rId1" display="Git"/>
+    <hyperlink ref="B25" r:id="rId2" display="Youtube"/>
+    <hyperlink ref="B24" r:id="rId3" display="Deploy"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
